--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed4/result_data_RandomForest.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.981799999999998</v>
+        <v>9.264399999999991</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.1144</v>
+        <v>-7.7625</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.894800000000004</v>
+        <v>-7.848700000000004</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.0304</v>
+        <v>-22.0313</v>
       </c>
       <c r="B9" t="n">
-        <v>5.792099999999998</v>
+        <v>6.297500000000007</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.7383</v>
+        <v>-11.9732</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,13 +586,13 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>4.6335</v>
+        <v>5.821700000000002</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.834699999999987</v>
+        <v>-7.623100000000002</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.437599999999996</v>
+        <v>-8.438799999999997</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.07340000000002</v>
+        <v>-22.0407</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.86179999999998</v>
+        <v>-19.97269999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.741399999999995</v>
+        <v>8.8901</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.042299999999999</v>
+        <v>6.152200000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.7399</v>
+        <v>4.794400000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.99559999999999</v>
+        <v>-22.13980000000002</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.00019999999999</v>
+        <v>-13.37019999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.92579999999999</v>
+        <v>-11.4732</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.200199999999995</v>
+        <v>-7.203499999999996</v>
       </c>
     </row>
     <row r="31">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.8577</v>
+        <v>-12.0162</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.823700000000008</v>
+        <v>9.781700000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.7537</v>
+        <v>-22.1462</v>
       </c>
       <c r="B35" t="n">
-        <v>3.987399999999999</v>
+        <v>4.7599</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.11549999999999</v>
+        <v>-12.711</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,10 +967,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.6179</v>
+        <v>-11.6718</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.443799999999998</v>
+        <v>-7.338000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.135099999999998</v>
+        <v>-8.261099999999995</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.83170000000001</v>
+        <v>-12.8059</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.538700000000006</v>
+        <v>-7.508700000000008</v>
       </c>
     </row>
     <row r="44">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.93139999999999</v>
+        <v>-14.03789999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.116800000000003</v>
+        <v>-7.068099999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.298800000000004</v>
+        <v>5.181600000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>4.619799999999996</v>
+        <v>4.773899999999998</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.133</v>
+        <v>-11.6987</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.074400000000001</v>
+        <v>5.958600000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.01609999999999</v>
+        <v>-13.63099999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.0843</v>
+        <v>-10.2121</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.569900000000001</v>
+        <v>5.986599999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.6441</v>
+        <v>5.495600000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65049999999998</v>
+        <v>-21.67869999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1488,12 +1488,12 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.667899999999995</v>
+        <v>-7.611799999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.02259999999998</v>
+        <v>-19.51699999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.80299999999999</v>
+        <v>-21.8316</v>
       </c>
       <c r="B78" t="n">
-        <v>5.898099999999999</v>
+        <v>6.083000000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.5846</v>
+        <v>9.7605</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8175</v>
+        <v>-21.88619999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.17390000000001</v>
+        <v>-11.3022</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.53839999999999</v>
+        <v>-21.52049999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.184599999999998</v>
+        <v>-7.417199999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1726,18 +1726,18 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.346200000000003</v>
+        <v>-6.507900000000003</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.08250000000001</v>
+        <v>-21.51459999999999</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.5785</v>
+        <v>-10.1492</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.458900000000005</v>
+        <v>-7.440800000000005</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.556799999999994</v>
+        <v>-8.579199999999995</v>
       </c>
     </row>
     <row r="97">
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.543399999999997</v>
+        <v>6.494500000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.3349</v>
+        <v>-12.0566</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.947600000000003</v>
+        <v>9.904200000000003</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,10 +1905,10 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-13.53549999999999</v>
+        <v>-12.92550000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.8432</v>
+        <v>-8.168300000000002</v>
       </c>
     </row>
   </sheetData>
